--- a/Class Project/Data Dictionary - Consoles.xlsx
+++ b/Class Project/Data Dictionary - Consoles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bergmann\Documents\GitHub\OSDA-DataManipulationAndManagement\Class Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JTB Ventures LLC\Documents\GitHub\OSDA-DataManipulationAndManagement\Class Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B22D34E-9EE3-4DA0-8CF5-9DA6AF0A7CD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6294DDC3-D7C5-4662-86C2-CA62A50DF9BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,12 +188,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -240,12 +246,8 @@
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -253,7 +255,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -270,7 +271,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,35 +623,36 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="46.28515625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="49.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="49.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="16" t="s">
@@ -656,44 +663,44 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -701,23 +708,23 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -725,23 +732,23 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -749,23 +756,23 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -773,23 +780,23 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -797,23 +804,23 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -821,23 +828,23 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -847,23 +854,23 @@
       <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -871,23 +878,23 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -897,23 +904,23 @@
         <v>40</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -921,11 +928,11 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
